--- a/Linkedin Web Scraper/Test.xlsx
+++ b/Linkedin Web Scraper/Test.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084703/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=tV%2B0c4mj%2FULK97cQKcvbCg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084703/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=07cFc0RmaGgVv8hcDu5Xeg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335087426/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=PjnSZ3gprOrjFkLXSZC1CA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335087426/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=LZ52ijec1maSJQmEaPOGwA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088185/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=29k2iv%2FZ2eeiOsp5Do9b7Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088185/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=GTAoXtCBXTS4btrqBAphOw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mississauga, ON</t>
+          <t>Hamilton, ON</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335089162/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=MDNrxN%2FcYlQQpBsmIjw5%2Fw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335091107/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=ig2nIF1ZWSIZvmIJr1MKQQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335089209/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=KsbNjdmg78dZrv6Echnhjg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335089209/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=vR7RRhvFwvK2%2FbbH1Wg5Iw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hamilton, ON</t>
+          <t>Mississauga, ON</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335091107/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=nEMG%2BKKcpH6HflWEEVLVvg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335089162/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=MUi%2FFSSmU4Nc5NE1WKTvHg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335089085/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=J0fLtEL5YvtKR9ZGXfpKLw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335089085/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=StbEcizBOMD4HCr3SeDngA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088165/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=0xjKoniMffprurW6Ubq46w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088165/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=GnLVibQR4efubFFs96wZew%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335087395/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=cTcSZmUmljvAgzO%2FZPVugQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335087395/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=8Amq3ulLHGQ6PRrt2zaF1w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335091002/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=oXYQ9Y1l5H0NZXKXc9HUHQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335091002/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=Yz0%2FiVz%2BzrQeEgWnRIK7JA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>San Francisco, CA</t>
+          <t>Kansas City, KS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085474/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=UDAuixvot2daM%2BBKuj9L%2Fg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085476/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=c5ga2k0Ejdu5JsZSIPOHIA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tampa, FL</t>
+          <t>Bozeman, MT</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335089109/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=7ayHz%2FnDZr5Lu0rko9RnSw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084713/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=Mt9pNUCuou6yla8eqoL8gg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1249,12 +1249,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wichita, KS</t>
+          <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084684/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=Fm4%2FFklL5NdvdtzSsk%2BYHA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085474/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=946PsSwKPHjKNtbmYmh2%2FQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1313,12 +1313,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Washington, DC</t>
+          <t>Tampa, FL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335089080/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=pnb61ViCpLadigVY9gs92w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335089109/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=CyU9q8xVlZd1S39ZnnQTog%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sacramento, CA</t>
+          <t>Wichita, KS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085496/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=5ddL0iN9F9cRwPU79bj9Fw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084684/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=b1mjSnTJfXydKWkLm99ltw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quebec, QC</t>
+          <t>Florida, Estados Unidos</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085510/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=n415DFUq6Uovcj%2Bm0qiCGw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086493/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=P1UEenYxr%2B2u0cYRBJ5jMQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nashville, TN</t>
+          <t>Washington, DC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090017/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=FMXZcaeHxDYLAJeuC19bEA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335089080/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=OE6UuCYXzsm7QNKX2DJGMQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Montreal, QC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085541/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=8fMCQ4u6OVQrgBgYlmDJog%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090089/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=wHD9wwqDMuOv7P3bAXcHWw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1633,12 +1633,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Austin, TX</t>
+          <t>Sacramento, CA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090002/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=fOEkGyWFdnc6CPyMQeN8Jw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085496/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=1fmmXj1Dm%2Fb5K5RKvC62GA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1697,12 +1697,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Búfalo, NY</t>
+          <t>Thunder Bay, ON</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335091029/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=wJuLXEkelGWE8gRfo4vCIA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086665/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=%2BvERB1ZTxNQIb1EVf5usRw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Huntsville, AL</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084732/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=9YHLAbaihz8dC1w%2BgRtImA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085541/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=2a3hPqeVQU%2BQb0qdNz8uIw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1825,12 +1825,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Filadelfia, PA</t>
+          <t>Quebec, QC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090012/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=DC0TZno6ug4ppn1d%2BP5W3Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085510/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=hnEeLqh1wXVu9JCSFllPCQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>California, Estados Unidos</t>
+          <t>Nashville, TN</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086517/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=ZHgJWZbrMGvaZz7SGWpEsA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090017/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=yGE%2BFJqP9cRfu0lfSZbz9A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Illinois, Estados Unidos</t>
+          <t>Austin, TX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088161/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=AEeaej3P2iIlXSM%2BgYBDKg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090002/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=x%2BSM5fNGRrtkJFGYffOvJw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fargo, ND</t>
+          <t>Saint John, NB</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085484/?eBP=JOB_SEARCH_ORGANIC&amp;refId=y%2BpZl519Dyi7zwadG3PNsA%3D%3D&amp;trackingId=EelA7vo0AolgzQu3ZM%2BGwg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335091117/?eBP=JOB_SEARCH_ORGANIC&amp;refId=Pm6eMi1HbRB%2BVBG3uRjQzg%3D%3D&amp;trackingId=C7Xc1vqInkojvsAI6GUlaA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Orlando, FL</t>
+          <t>Detroit, MI</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335089074/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=F%2FR8PMISIRHow5qZrO3lqg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086531/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=8n8xzp9HS55%2BnpWmpsKYMA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Charlotte, NC</t>
+          <t>Milwaukee, WI</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090022/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=bAN%2BwQaX0b8GjevA7zhdBw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088154/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=TvgkBBdZEiIozrhEZeG7cQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2209,12 +2209,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Portland, OR</t>
+          <t>Búfalo, NY</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088177/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=UOIOrY8cbXdJm%2BvUEPUOEg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335091029/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=1Z8Y%2BFxpmeCRS36kZY36Ig%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Des Moines, IA</t>
+          <t>Huntsville, AL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085472/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=vYW4JFlYRC9iI%2FS%2B%2Fz4%2FpQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084732/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=WM2hl6nE8T%2F0x1frJhmdxA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nueva York, NY</t>
+          <t>Banff, AB</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090014/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=nhqgmlK82qxAohO2gyl2nQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086573/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=prUOQKKov1xIjKKV6BvPLA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2351,14 +2351,13 @@
 Our team
 The Aha! marketing team is a highly collaborative group of experts across digital, communications, and product marketing disciplines. We work within North American time zones so we can easily meet live on video and achieve more together.
 We drive growth: Aha! does not have a sales team — marketing is responsible for increasing awareness and trial sign-ups.
-We give big effort: We work exceptionally hard and fast, constantly producing content that engages new customers and brings value to existing ones.
-We are curious:We seek to better understand our market, customers, and products so we can clearly articulate the unique value of what we offer.
-We have fun: We care deeply about our teammates, always making time to celebrate, support, and laugh with each other.
-We enjoy: We like what we do and we want you to love your job too. Learn more about The Responsive Method , our company values , and the generous benefits we offer.
-Our programs
-The product marketing group within the broader marketing team is responsible for messaging the unique value of our products and services. We own a broad range of programs — from managing weekly go-to-market launches to producing live product trainings and tools for concierge support . We deliver high-quality content, such as educational guides to support our target use cases and best practice articles to help our customers get the most value out of our software.
-We do our planning and collaboration in Aha! Roadmaps . We are power users of our own software, often providing feedback and suggestions for improvements that are shipped to customers too. We use Slack and Zoom for video calls. (Email? Rarely.)
-Your Experience
+We give big effort: We work exceptionally hard and fast, constantly producing content that engages new customers and brings value to existing ones. 
+We are curious:We seek to better understand our market, customers, and products so we can clearly articulate the unique value of what we offer. 
+We have fun: We care deeply about our teammates, always making time to celebrate, support, and laugh with each other.
+We enjoy: We like what we do and we want you to love your job too. Learn more about The Responsive Method , our company values , and the generous benefits we offer. 
+Our programs
+The product marketing group within the broader marketing team is responsible for messaging the unique value of our products and services. We own a broad range of programs — from managing weekly go-to-market launches to producing live product trainings and tools for concierge support . We deliver high-quality content, such as educational guides to support our target use cases and best practice articles to help our customers get the most value out of our software.
+We do our planning and collaboration in Aha! Roadmaps . We are power users of our own software, often providing feedback and suggestions for improvements that are shipped to customers too. We use Slack and Zoom for video calls. (Email? Rarely.)
 You have at least four years of experience in product marketing at a SaaS company. And you are passionate about how sophisticated product development tools can help organizations work in a more productive way. You thrive on being a market, customer, and product expert — so you can communicate the value of your company's offerings with confidence.
 You like to work in a fast-paced environment, where launches happen often — not once or twice a year. And you thrive on collaborating closely with cross-functional teams to achieve excellent results. You love honing in on the details and producing exceptional work for effectively marketing products and services.
 Your work at Aha!
@@ -2381,7 +2380,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Aha!', 'is', 'a', 'very', 'different', 'type', 'of', 'high-growth', 'SaaS', 'company.', 'We', 'are', 'self-funded,', 'highly', 'profitable,', 'and', '100', 'percent', 'remote.', 'We', 'provide', 'the', "world's", '#1', 'product', 'development', 'software', 'so', 'teams', 'can', 'build', 'products', 'that', 'customers', 'love.', 'More', 'than', '600,000', 'product', 'builders', 'use', 'our', 'suite', 'of', 'tools', 'which', 'includes', 'Aha!', 'Roadmaps', ',', 'Aha!', 'Ideas', ',', 'Aha!', 'Create', ',', 'and', 'Aha!', 'Develop', '.', 'And', 'they', 'rely', 'on', 'our', 'training', 'programs', 'via', 'Aha!', 'Academy', 'to', 'become', 'product', 'development', 'experts.', 'We', 'are', 'recognized', 'as', 'one', 'of', 'the', 'best', 'fully', 'remote', 'companies', 'to', 'work', 'for,', 'champion', 'the', 'Bootstrap', 'Movement', ',', 'and', 'have', 'given', 'over', '$1M', 'to', 'people', 'in', 'need', 'through', 'Aha!', 'Cares', '.', 'Learn', 'more', 'at', 'www.aha.io', '.', 'Our', 'team', 'The', 'Aha!', 'marketing', 'team', 'is', 'a', 'highly', 'collaborative', 'group', 'of', 'experts', 'across', 'digital,', 'communications,', 'and', 'product', 'marketing', 'disciplines.', 'We', 'work', 'within', 'North', 'American', 'time', 'zones', 'so', 'we', 'can', 'easily', 'meet', 'live', 'on', 'video', 'and', 'achieve', 'more', 'together.', 'We', 'drive', 'growth:', 'Aha!', 'does', 'not', 'have', 'a', 'sales', 'team', '—', 'marketing', 'is', 'responsible', 'for', 'increasing', 'awareness', 'and', 'trial', 'sign-ups.', 'We', 'give', 'big', 'effort:', 'We', 'work', 'exceptionally', 'hard', 'and', 'fast,', 'constantly', 'producing', 'content', 'that', 'engages', 'new', 'customers', 'and', 'brings', 'value', 'to', 'existing', 'ones.', 'We', 'are', 'curious:We', 'seek', 'to', 'better', 'understand', 'our', 'market,', 'customers,', 'and', 'products', 'so', 'we', 'can', 'clearly', 'articulate', 'the', 'unique', 'value', 'of', 'what', 'we', 'offer.', 'We', 'have', 'fun:', 'We', 'care', 'deeply', 'about', 'our', 'teammates,', 'always', 'making', 'time', 'to', 'celebrate,', 'support,', 'and', 'laugh', 'with', 'each', 'other.', 'We', 'enjoy:', 'We', 'like', 'what', 'we', 'do', 'and', 'we', 'want', 'you', 'to', 'love', 'your', 'job', 'too.', 'Learn', 'more', 'about', 'The', 'Responsive', 'Method', ',', 'our', 'company', 'values', ',', 'and', 'the', 'generous', 'benefits', 'we', 'offer.', 'Our', 'programs', 'The', 'product', 'marketing', 'group', 'within', 'the', 'broader', 'marketing', 'team', 'is', 'responsible', 'for', 'messaging', 'the', 'unique', 'value', 'of', 'our', 'products', 'and', 'services.', 'We', 'own', 'a', 'broad', 'range', 'of', 'programs', '—', 'from', 'managing', 'weekly', 'go-to-market', 'launches', 'to', 'producing', 'live', 'product', 'trainings', 'and', 'tools', 'for', 'concierge', 'support', '.', 'We', 'deliver', 'high-quality', 'content,', 'such', 'as', 'educational', 'guides', 'to', 'support', 'our', 'target', 'use', 'cases', 'and', 'best', 'practice', 'articles', 'to', 'help', 'our', 'customers', 'get', 'the', 'most', 'value', 'out', 'of', 'our', 'software.', 'We', 'do', 'our', 'planning', 'and', 'collaboration', 'in', 'Aha!', 'Roadmaps', '.', 'We', 'are', 'power', 'users', 'of', 'our', 'own', 'software,', 'often', 'providing', 'feedback', 'and', 'suggestions', 'for', 'improvements', 'that', 'are', 'shipped', 'to', 'customers', 'too.', 'We', 'use', 'Slack', 'and', 'Zoom', 'for', 'video', 'calls.', '(Email?', 'Rarely.)', 'Your', 'Experience', 'You', 'have', 'at', 'least', 'four', 'years', 'of', 'experience', 'in', 'product', 'marketing', 'at', 'a', 'SaaS', 'company.', 'And', 'you', 'are', 'passionate', 'about', 'how', 'sophisticated', 'product', 'development', 'tools', 'can', 'help', 'organizations', 'work', 'in', 'a', 'more', 'productive', 'way.', 'You', 'thrive', 'on', 'being', 'a', 'market,', 'customer,', 'and', 'product', 'expert', '—', 'so', 'you', 'can', 'communicate', 'the', 'value', 'of', 'your', "company's", 'offerings', 'with', 'confidence.', 'You', 'like', 'to', 'work', 'in', 'a', 'fast-paced', 'environment,', 'where', 'launches', 'happen', 'often', '—', 'not', 'once', 'or', 'twice', 'a', 'year.', 'And', 'you', 'thrive', 'on', 'collaborating', 'closely', 'with', 'cross-functional', 'teams', 'to', 'achieve', 'excellent', 'results.', 'You', 'love', 'honing', 'in', 'on', 'the', 'details', 'and', 'producing', 'exceptional', 'work', 'for', 'effectively', 'marketing', 'products', 'and', 'services.', 'Your', 'work', 'at', 'Aha!', 'We', 'work', 'on', 'a', 'broad', 'range', 'of', 'marketing', 'initiatives', 'and', 'programs.', 'As', 'Product', 'Marketing', 'Manager,', 'your', 'responsibilities', 'will', 'include:', 'Managing', 'weekly', 'go-to-market', 'launches,', 'delivering', 'high-quality', 'messaging', 'and', 'screenshots', 'that', 'communicate', 'the', 'value', 'of', 'new', 'or', 'enhanced', 'functionality.', 'Producing', 'excellent', 'content', 'for', 'customers', '—', 'such', 'as', 'guides,', 'live', 'trainings,', 'video', 'scripts,', 'concierge', 'tools,', 'and', 'best', 'practice', 'articles.', 'Assisting', 'with', 'strategic', 'initiatives', 'and', 'programs', 'to', 'drive', 'new', 'customer', 'adoption', 'and', 'help', 'existing', 'customers', 'get', 'more', 'value', 'out', 'of', 'our', 'software.', 'Supporting', 'the', 'ongoing', 'growth', 'of', 'new', 'products', 'and', 'services.', 'Working', 'proactively', 'to', 'deepen', 'your', 'understanding', 'of', 'our', 'market,', 'customers,', 'and', 'product.', 'If', 'the', 'Product', 'Marketing', 'Manager', 'role', 'sounds', 'appealing,', 'we', 'would', 'love', 'to', 'hear', 'from', 'you.', '(A', 'real', 'human', 'reviews', 'every', 'application.)', 'Grow', 'with', 'us', 'Everyone', 'deserves', 'to', 'reach', 'their', 'fullest', 'potential.', 'We', 'know', 'that', 'when', 'we', 'do', 'work', 'that', 'matters', 'with', 'people', 'we', 'care', 'about', 'in', 'a', 'high-growth', 'environment,', 'we', 'feel', 'engaged', 'and', 'alive.', 'And', 'our', 'goal', 'is', 'to', 'help', 'you', 'do', 'just', 'that.', 'We', 'offer', 'all', 'the', 'benefits', 'you', 'would', 'expect', 'and', 'more,', 'including', 'profit', 'sharing.', 'The', 'specific', 'benefits', 'listed', 'below', 'are', 'reflective', 'of', 'what', 'we', 'offer', 'U.S.-based', 'hires.', 'We', 'also', 'do', 'our', 'best', 'to', 'extend', 'identical', 'benefits', 'to', 'international', 'teammates.', 'Generous', 'salary', 'with', 'annual', 'profit', 'sharing', 'for', 'all', 'Medical,', 'dental,', 'and', 'vision', 'plans', '—', 'for', 'many', 'teammates,', 'we', 'cover', '100', 'percent', 'of', 'the', 'premiums', 'Up', 'to', '200', 'hours', 'of', 'paid', 'time', 'off', 'a', 'year', 'to', 'spend', 'however', 'you', 'want', '30', 'to', '90', 'days', 'of', 'paid', 'parental', 'leave', 'and', 'five', 'to', '10', 'days', 'of', 'paid', 'care', 'and', 'bereavement', 'leave', 'Up', 'to', '$1,000', 'annually', 'for', 'third-party', 'education,', 'along', 'with', 'paid', 'time', 'off', 'to', 'immerse', 'yourself', 'in', 'learning', 'Aha!', 'contributes', 'a', 'percentage', 'of', 'your', 'total', 'compensation', 'each', 'year', 'towards', 'your', 'retirement']</t>
+          <t>['Aha!', 'is', 'a', 'very', 'different', 'type', 'of', 'high-growth', 'SaaS', 'company.', 'We', 'are', 'self-funded,', 'highly', 'profitable,', 'and', '100', 'percent', 'remote.', 'We', 'provide', 'the', "world's", '#1', 'product', 'development', 'software', 'so', 'teams', 'can', 'build', 'products', 'that', 'customers', 'love.', 'More', 'than', '600,000', 'product', 'builders', 'use', 'our', 'suite', 'of', 'tools', 'which', 'includes', 'Aha!', 'Roadmaps', ',', 'Aha!', 'Ideas', ',', 'Aha!', 'Create', ',', 'and', 'Aha!', 'Develop', '.', 'And', 'they', 'rely', 'on', 'our', 'training', 'programs', 'via', 'Aha!', 'Academy', 'to', 'become', 'product', 'development', 'experts.', 'We', 'are', 'recognized', 'as', 'one', 'of', 'the', 'best', 'fully', 'remote', 'companies', 'to', 'work', 'for,', 'champion', 'the', 'Bootstrap', 'Movement', ',', 'and', 'have', 'given', 'over', '$1M', 'to', 'people', 'in', 'need', 'through', 'Aha!', 'Cares', '.', 'Learn', 'more', 'at', 'www.aha.io', '.', 'Our', 'team', 'The', 'Aha!', 'marketing', 'team', 'is', 'a', 'highly', 'collaborative', 'group', 'of', 'experts', 'across', 'digital,', 'communications,', 'and', 'product', 'marketing', 'disciplines.', 'We', 'work', 'within', 'North', 'American', 'time', 'zones', 'so', 'we', 'can', 'easily', 'meet', 'live', 'on', 'video', 'and', 'achieve', 'more', 'together.', 'We', 'drive', 'growth:', 'Aha!', 'does', 'not', 'have', 'a', 'sales', 'team', '—', 'marketing', 'is', 'responsible', 'for', 'increasing', 'awareness', 'and', 'trial', 'sign-ups.', 'We', 'give', 'big', 'effort:', 'We', 'work', 'exceptionally', 'hard', 'and', 'fast,', 'constantly', 'producing', 'content', 'that', 'engages', 'new', 'customers', 'and', 'brings', 'value', 'to', 'existing', 'ones.', 'We', 'are', 'curious:We', 'seek', 'to', 'better', 'understand', 'our', 'market,', 'customers,', 'and', 'products', 'so', 'we', 'can', 'clearly', 'articulate', 'the', 'unique', 'value', 'of', 'what', 'we', 'offer.', 'We', 'have', 'fun:', 'We', 'care', 'deeply', 'about', 'our', 'teammates,', 'always', 'making', 'time', 'to', 'celebrate,', 'support,', 'and', 'laugh', 'with', 'each', 'other.', 'We', 'enjoy:', 'We', 'like', 'what', 'we', 'do', 'and', 'we', 'want', 'you', 'to', 'love', 'your', 'job', 'too.', 'Learn', 'more', 'about', 'The', 'Responsive', 'Method', ',', 'our', 'company', 'values', ',', 'and', 'the', 'generous', 'benefits', 'we', 'offer.', 'Our', 'programs', 'The', 'product', 'marketing', 'group', 'within', 'the', 'broader', 'marketing', 'team', 'is', 'responsible', 'for', 'messaging', 'the', 'unique', 'value', 'of', 'our', 'products', 'and', 'services.', 'We', 'own', 'a', 'broad', 'range', 'of', 'programs', '—', 'from', 'managing', 'weekly', 'go-to-market', 'launches', 'to', 'producing', 'live', 'product', 'trainings', 'and', 'tools', 'for', 'concierge', 'support', '.', 'We', 'deliver', 'high-quality', 'content,', 'such', 'as', 'educational', 'guides', 'to', 'support', 'our', 'target', 'use', 'cases', 'and', 'best', 'practice', 'articles', 'to', 'help', 'our', 'customers', 'get', 'the', 'most', 'value', 'out', 'of', 'our', 'software.', 'We', 'do', 'our', 'planning', 'and', 'collaboration', 'in', 'Aha!', 'Roadmaps', '.', 'We', 'are', 'power', 'users', 'of', 'our', 'own', 'software,', 'often', 'providing', 'feedback', 'and', 'suggestions', 'for', 'improvements', 'that', 'are', 'shipped', 'to', 'customers', 'too.', 'We', 'use', 'Slack', 'and', 'Zoom', 'for', 'video', 'calls.', '(Email?', 'Rarely.)', 'You', 'have', 'at', 'least', 'four', 'years', 'of', 'experience', 'in', 'product', 'marketing', 'at', 'a', 'SaaS', 'company.', 'And', 'you', 'are', 'passionate', 'about', 'how', 'sophisticated', 'product', 'development', 'tools', 'can', 'help', 'organizations', 'work', 'in', 'a', 'more', 'productive', 'way.', 'You', 'thrive', 'on', 'being', 'a', 'market,', 'customer,', 'and', 'product', 'expert', '—', 'so', 'you', 'can', 'communicate', 'the', 'value', 'of', 'your', "company's", 'offerings', 'with', 'confidence.', 'You', 'like', 'to', 'work', 'in', 'a', 'fast-paced', 'environment,', 'where', 'launches', 'happen', 'often', '—', 'not', 'once', 'or', 'twice', 'a', 'year.', 'And', 'you', 'thrive', 'on', 'collaborating', 'closely', 'with', 'cross-functional', 'teams', 'to', 'achieve', 'excellent', 'results.', 'You', 'love', 'honing', 'in', 'on', 'the', 'details', 'and', 'producing', 'exceptional', 'work', 'for', 'effectively', 'marketing', 'products', 'and', 'services.', 'Your', 'work', 'at', 'Aha!', 'We', 'work', 'on', 'a', 'broad', 'range', 'of', 'marketing', 'initiatives', 'and', 'programs.', 'As', 'Product', 'Marketing', 'Manager,', 'your', 'responsibilities', 'will', 'include:', 'Managing', 'weekly', 'go-to-market', 'launches,', 'delivering', 'high-quality', 'messaging', 'and', 'screenshots', 'that', 'communicate', 'the', 'value', 'of', 'new', 'or', 'enhanced', 'functionality.', 'Producing', 'excellent', 'content', 'for', 'customers', '—', 'such', 'as', 'guides,', 'live', 'trainings,', 'video', 'scripts,', 'concierge', 'tools,', 'and', 'best', 'practice', 'articles.', 'Assisting', 'with', 'strategic', 'initiatives', 'and', 'programs', 'to', 'drive', 'new', 'customer', 'adoption', 'and', 'help', 'existing', 'customers', 'get', 'more', 'value', 'out', 'of', 'our', 'software.', 'Supporting', 'the', 'ongoing', 'growth', 'of', 'new', 'products', 'and', 'services.', 'Working', 'proactively', 'to', 'deepen', 'your', 'understanding', 'of', 'our', 'market,', 'customers,', 'and', 'product.', 'If', 'the', 'Product', 'Marketing', 'Manager', 'role', 'sounds', 'appealing,', 'we', 'would', 'love', 'to', 'hear', 'from', 'you.', '(A', 'real', 'human', 'reviews', 'every', 'application.)', 'Grow', 'with', 'us', 'Everyone', 'deserves', 'to', 'reach', 'their', 'fullest', 'potential.', 'We', 'know', 'that', 'when', 'we', 'do', 'work', 'that', 'matters', 'with', 'people', 'we', 'care', 'about', 'in', 'a', 'high-growth', 'environment,', 'we', 'feel', 'engaged', 'and', 'alive.', 'And', 'our', 'goal', 'is', 'to', 'help', 'you', 'do', 'just', 'that.', 'We', 'offer', 'all', 'the', 'benefits', 'you', 'would', 'expect', 'and', 'more,', 'including', 'profit', 'sharing.', 'The', 'specific', 'benefits', 'listed', 'below', 'are', 'reflective', 'of', 'what', 'we', 'offer', 'U.S.-based', 'hires.', 'We', 'also', 'do', 'our', 'best', 'to', 'extend', 'identical', 'benefits', 'to', 'international', 'teammates.', 'Generous', 'salary', 'with', 'annual', 'profit', 'sharing', 'for', 'all', 'Medical,', 'dental,', 'and', 'vision', 'plans', '—', 'for', 'many', 'teammates,', 'we', 'cover', '100', 'percent', 'of', 'the', 'premiums', 'Up', 'to', '200', 'hours', 'of', 'paid', 'time', 'off', 'a', 'year', 'to', 'spend', 'however', 'you', 'want', '30', 'to', '90', 'days', 'of', 'paid', 'parental', 'leave', 'and', 'five', 'to', '10', 'days', 'of', 'paid', 'care', 'and', 'bereavement', 'leave', 'Up', 'to', '$1,000', 'annually', 'for', 'third-party', 'education,', 'along', 'with', 'paid', 'time', 'off', 'to', 'immerse', 'yourself', 'in', 'learning', 'Aha!', 'contributes', 'a', 'percentage', 'of', 'your', 'total', 'compensation', 'each', 'year', 'towards', 'your', 'retirement']</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2400,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Miami, FL</t>
+          <t>Illinois, Estados Unidos</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084670/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=OprmKHuSmBZC7INwokeOgg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088161/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=IU6Bkix9eUQmlkGuKf%2BzoA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2415,14 +2414,13 @@
 Our team
 The Aha! marketing team is a highly collaborative group of experts across digital, communications, and product marketing disciplines. We work within North American time zones so we can easily meet live on video and achieve more together.
 We drive growth: Aha! does not have a sales team — marketing is responsible for increasing awareness and trial sign-ups.
-We give big effort: We work exceptionally hard and fast, constantly producing content that engages new customers and brings value to existing ones.
-We are curious:We seek to better understand our market, customers, and products so we can clearly articulate the unique value of what we offer.
-We have fun: We care deeply about our teammates, always making time to celebrate, support, and laugh with each other.
-We enjoy: We like what we do and we want you to love your job too. Learn more about The Responsive Method , our company values , and the generous benefits we offer.
-Our programs
-The product marketing group within the broader marketing team is responsible for messaging the unique value of our products and services. We own a broad range of programs — from managing weekly go-to-market launches to producing live product trainings and tools for concierge support . We deliver high-quality content, such as educational guides to support our target use cases and best practice articles to help our customers get the most value out of our software.
-We do our planning and collaboration in Aha! Roadmaps . We are power users of our own software, often providing feedback and suggestions for improvements that are shipped to customers too. We use Slack and Zoom for video calls. (Email? Rarely.)
-Your Experience
+We give big effort: We work exceptionally hard and fast, constantly producing content that engages new customers and brings value to existing ones. 
+We are curious:We seek to better understand our market, customers, and products so we can clearly articulate the unique value of what we offer. 
+We have fun: We care deeply about our teammates, always making time to celebrate, support, and laugh with each other.
+We enjoy: We like what we do and we want you to love your job too. Learn more about The Responsive Method , our company values , and the generous benefits we offer. 
+Our programs
+The product marketing group within the broader marketing team is responsible for messaging the unique value of our products and services. We own a broad range of programs — from managing weekly go-to-market launches to producing live product trainings and tools for concierge support . We deliver high-quality content, such as educational guides to support our target use cases and best practice articles to help our customers get the most value out of our software.
+We do our planning and collaboration in Aha! Roadmaps . We are power users of our own software, often providing feedback and suggestions for improvements that are shipped to customers too. We use Slack and Zoom for video calls. (Email? Rarely.)
 You have at least four years of experience in product marketing at a SaaS company. And you are passionate about how sophisticated product development tools can help organizations work in a more productive way. You thrive on being a market, customer, and product expert — so you can communicate the value of your company's offerings with confidence.
 You like to work in a fast-paced environment, where launches happen often — not once or twice a year. And you thrive on collaborating closely with cross-functional teams to achieve excellent results. You love honing in on the details and producing exceptional work for effectively marketing products and services.
 Your work at Aha!
@@ -2445,7 +2443,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['Aha!', 'is', 'a', 'very', 'different', 'type', 'of', 'high-growth', 'SaaS', 'company.', 'We', 'are', 'self-funded,', 'highly', 'profitable,', 'and', '100', 'percent', 'remote.', 'We', 'provide', 'the', "world's", '#1', 'product', 'development', 'software', 'so', 'teams', 'can', 'build', 'products', 'that', 'customers', 'love.', 'More', 'than', '600,000', 'product', 'builders', 'use', 'our', 'suite', 'of', 'tools', 'which', 'includes', 'Aha!', 'Roadmaps', ',', 'Aha!', 'Ideas', ',', 'Aha!', 'Create', ',', 'and', 'Aha!', 'Develop', '.', 'And', 'they', 'rely', 'on', 'our', 'training', 'programs', 'via', 'Aha!', 'Academy', 'to', 'become', 'product', 'development', 'experts.', 'We', 'are', 'recognized', 'as', 'one', 'of', 'the', 'best', 'fully', 'remote', 'companies', 'to', 'work', 'for,', 'champion', 'the', 'Bootstrap', 'Movement', ',', 'and', 'have', 'given', 'over', '$1M', 'to', 'people', 'in', 'need', 'through', 'Aha!', 'Cares', '.', 'Learn', 'more', 'at', 'www.aha.io', '.', 'Our', 'team', 'The', 'Aha!', 'marketing', 'team', 'is', 'a', 'highly', 'collaborative', 'group', 'of', 'experts', 'across', 'digital,', 'communications,', 'and', 'product', 'marketing', 'disciplines.', 'We', 'work', 'within', 'North', 'American', 'time', 'zones', 'so', 'we', 'can', 'easily', 'meet', 'live', 'on', 'video', 'and', 'achieve', 'more', 'together.', 'We', 'drive', 'growth:', 'Aha!', 'does', 'not', 'have', 'a', 'sales', 'team', '—', 'marketing', 'is', 'responsible', 'for', 'increasing', 'awareness', 'and', 'trial', 'sign-ups.', 'We', 'give', 'big', 'effort:', 'We', 'work', 'exceptionally', 'hard', 'and', 'fast,', 'constantly', 'producing', 'content', 'that', 'engages', 'new', 'customers', 'and', 'brings', 'value', 'to', 'existing', 'ones.', 'We', 'are', 'curious:We', 'seek', 'to', 'better', 'understand', 'our', 'market,', 'customers,', 'and', 'products', 'so', 'we', 'can', 'clearly', 'articulate', 'the', 'unique', 'value', 'of', 'what', 'we', 'offer.', 'We', 'have', 'fun:', 'We', 'care', 'deeply', 'about', 'our', 'teammates,', 'always', 'making', 'time', 'to', 'celebrate,', 'support,', 'and', 'laugh', 'with', 'each', 'other.', 'We', 'enjoy:', 'We', 'like', 'what', 'we', 'do', 'and', 'we', 'want', 'you', 'to', 'love', 'your', 'job', 'too.', 'Learn', 'more', 'about', 'The', 'Responsive', 'Method', ',', 'our', 'company', 'values', ',', 'and', 'the', 'generous', 'benefits', 'we', 'offer.', 'Our', 'programs', 'The', 'product', 'marketing', 'group', 'within', 'the', 'broader', 'marketing', 'team', 'is', 'responsible', 'for', 'messaging', 'the', 'unique', 'value', 'of', 'our', 'products', 'and', 'services.', 'We', 'own', 'a', 'broad', 'range', 'of', 'programs', '—', 'from', 'managing', 'weekly', 'go-to-market', 'launches', 'to', 'producing', 'live', 'product', 'trainings', 'and', 'tools', 'for', 'concierge', 'support', '.', 'We', 'deliver', 'high-quality', 'content,', 'such', 'as', 'educational', 'guides', 'to', 'support', 'our', 'target', 'use', 'cases', 'and', 'best', 'practice', 'articles', 'to', 'help', 'our', 'customers', 'get', 'the', 'most', 'value', 'out', 'of', 'our', 'software.', 'We', 'do', 'our', 'planning', 'and', 'collaboration', 'in', 'Aha!', 'Roadmaps', '.', 'We', 'are', 'power', 'users', 'of', 'our', 'own', 'software,', 'often', 'providing', 'feedback', 'and', 'suggestions', 'for', 'improvements', 'that', 'are', 'shipped', 'to', 'customers', 'too.', 'We', 'use', 'Slack', 'and', 'Zoom', 'for', 'video', 'calls.', '(Email?', 'Rarely.)', 'Your', 'Experience', 'You', 'have', 'at', 'least', 'four', 'years', 'of', 'experience', 'in', 'product', 'marketing', 'at', 'a', 'SaaS', 'company.', 'And', 'you', 'are', 'passionate', 'about', 'how', 'sophisticated', 'product', 'development', 'tools', 'can', 'help', 'organizations', 'work', 'in', 'a', 'more', 'productive', 'way.', 'You', 'thrive', 'on', 'being', 'a', 'market,', 'customer,', 'and', 'product', 'expert', '—', 'so', 'you', 'can', 'communicate', 'the', 'value', 'of', 'your', "company's", 'offerings', 'with', 'confidence.', 'You', 'like', 'to', 'work', 'in', 'a', 'fast-paced', 'environment,', 'where', 'launches', 'happen', 'often', '—', 'not', 'once', 'or', 'twice', 'a', 'year.', 'And', 'you', 'thrive', 'on', 'collaborating', 'closely', 'with', 'cross-functional', 'teams', 'to', 'achieve', 'excellent', 'results.', 'You', 'love', 'honing', 'in', 'on', 'the', 'details', 'and', 'producing', 'exceptional', 'work', 'for', 'effectively', 'marketing', 'products', 'and', 'services.', 'Your', 'work', 'at', 'Aha!', 'We', 'work', 'on', 'a', 'broad', 'range', 'of', 'marketing', 'initiatives', 'and', 'programs.', 'As', 'Product', 'Marketing', 'Manager,', 'your', 'responsibilities', 'will', 'include:', 'Managing', 'weekly', 'go-to-market', 'launches,', 'delivering', 'high-quality', 'messaging', 'and', 'screenshots', 'that', 'communicate', 'the', 'value', 'of', 'new', 'or', 'enhanced', 'functionality.', 'Producing', 'excellent', 'content', 'for', 'customers', '—', 'such', 'as', 'guides,', 'live', 'trainings,', 'video', 'scripts,', 'concierge', 'tools,', 'and', 'best', 'practice', 'articles.', 'Assisting', 'with', 'strategic', 'initiatives', 'and', 'programs', 'to', 'drive', 'new', 'customer', 'adoption', 'and', 'help', 'existing', 'customers', 'get', 'more', 'value', 'out', 'of', 'our', 'software.', 'Supporting', 'the', 'ongoing', 'growth', 'of', 'new', 'products', 'and', 'services.', 'Working', 'proactively', 'to', 'deepen', 'your', 'understanding', 'of', 'our', 'market,', 'customers,', 'and', 'product.', 'If', 'the', 'Product', 'Marketing', 'Manager', 'role', 'sounds', 'appealing,', 'we', 'would', 'love', 'to', 'hear', 'from', 'you.', '(A', 'real', 'human', 'reviews', 'every', 'application.)', 'Grow', 'with', 'us', 'Everyone', 'deserves', 'to', 'reach', 'their', 'fullest', 'potential.', 'We', 'know', 'that', 'when', 'we', 'do', 'work', 'that', 'matters', 'with', 'people', 'we', 'care', 'about', 'in', 'a', 'high-growth', 'environment,', 'we', 'feel', 'engaged', 'and', 'alive.', 'And', 'our', 'goal', 'is', 'to', 'help', 'you', 'do', 'just', 'that.', 'We', 'offer', 'all', 'the', 'benefits', 'you', 'would', 'expect', 'and', 'more,', 'including', 'profit', 'sharing.', 'The', 'specific', 'benefits', 'listed', 'below', 'are', 'reflective', 'of', 'what', 'we', 'offer', 'U.S.-based', 'hires.', 'We', 'also', 'do', 'our', 'best', 'to', 'extend', 'identical', 'benefits', 'to', 'international', 'teammates.', 'Generous', 'salary', 'with', 'annual', 'profit', 'sharing', 'for', 'all', 'Medical,', 'dental,', 'and', 'vision', 'plans', '—', 'for', 'many', 'teammates,', 'we', 'cover', '100', 'percent', 'of', 'the', 'premiums', 'Up', 'to', '200', 'hours', 'of', 'paid', 'time', 'off', 'a', 'year', 'to', 'spend', 'however', 'you', 'want', '30', 'to', '90', 'days', 'of', 'paid', 'parental', 'leave', 'and', 'five', 'to', '10', 'days', 'of', 'paid', 'care', 'and', 'bereavement', 'leave', 'Up', 'to', '$1,000', 'annually', 'for', 'third-party', 'education,', 'along', 'with', 'paid', 'time', 'off', 'to', 'immerse', 'yourself', 'in', 'learning', 'Aha!', 'contributes', 'a', 'percentage', 'of', 'your', 'total', 'compensation', 'each', 'year', 'towards', 'your', 'retirement']</t>
+          <t>['Aha!', 'is', 'a', 'very', 'different', 'type', 'of', 'high-growth', 'SaaS', 'company.', 'We', 'are', 'self-funded,', 'highly', 'profitable,', 'and', '100', 'percent', 'remote.', 'We', 'provide', 'the', "world's", '#1', 'product', 'development', 'software', 'so', 'teams', 'can', 'build', 'products', 'that', 'customers', 'love.', 'More', 'than', '600,000', 'product', 'builders', 'use', 'our', 'suite', 'of', 'tools', 'which', 'includes', 'Aha!', 'Roadmaps', ',', 'Aha!', 'Ideas', ',', 'Aha!', 'Create', ',', 'and', 'Aha!', 'Develop', '.', 'And', 'they', 'rely', 'on', 'our', 'training', 'programs', 'via', 'Aha!', 'Academy', 'to', 'become', 'product', 'development', 'experts.', 'We', 'are', 'recognized', 'as', 'one', 'of', 'the', 'best', 'fully', 'remote', 'companies', 'to', 'work', 'for,', 'champion', 'the', 'Bootstrap', 'Movement', ',', 'and', 'have', 'given', 'over', '$1M', 'to', 'people', 'in', 'need', 'through', 'Aha!', 'Cares', '.', 'Learn', 'more', 'at', 'www.aha.io', '.', 'Our', 'team', 'The', 'Aha!', 'marketing', 'team', 'is', 'a', 'highly', 'collaborative', 'group', 'of', 'experts', 'across', 'digital,', 'communications,', 'and', 'product', 'marketing', 'disciplines.', 'We', 'work', 'within', 'North', 'American', 'time', 'zones', 'so', 'we', 'can', 'easily', 'meet', 'live', 'on', 'video', 'and', 'achieve', 'more', 'together.', 'We', 'drive', 'growth:', 'Aha!', 'does', 'not', 'have', 'a', 'sales', 'team', '—', 'marketing', 'is', 'responsible', 'for', 'increasing', 'awareness', 'and', 'trial', 'sign-ups.', 'We', 'give', 'big', 'effort:', 'We', 'work', 'exceptionally', 'hard', 'and', 'fast,', 'constantly', 'producing', 'content', 'that', 'engages', 'new', 'customers', 'and', 'brings', 'value', 'to', 'existing', 'ones.', 'We', 'are', 'curious:We', 'seek', 'to', 'better', 'understand', 'our', 'market,', 'customers,', 'and', 'products', 'so', 'we', 'can', 'clearly', 'articulate', 'the', 'unique', 'value', 'of', 'what', 'we', 'offer.', 'We', 'have', 'fun:', 'We', 'care', 'deeply', 'about', 'our', 'teammates,', 'always', 'making', 'time', 'to', 'celebrate,', 'support,', 'and', 'laugh', 'with', 'each', 'other.', 'We', 'enjoy:', 'We', 'like', 'what', 'we', 'do', 'and', 'we', 'want', 'you', 'to', 'love', 'your', 'job', 'too.', 'Learn', 'more', 'about', 'The', 'Responsive', 'Method', ',', 'our', 'company', 'values', ',', 'and', 'the', 'generous', 'benefits', 'we', 'offer.', 'Our', 'programs', 'The', 'product', 'marketing', 'group', 'within', 'the', 'broader', 'marketing', 'team', 'is', 'responsible', 'for', 'messaging', 'the', 'unique', 'value', 'of', 'our', 'products', 'and', 'services.', 'We', 'own', 'a', 'broad', 'range', 'of', 'programs', '—', 'from', 'managing', 'weekly', 'go-to-market', 'launches', 'to', 'producing', 'live', 'product', 'trainings', 'and', 'tools', 'for', 'concierge', 'support', '.', 'We', 'deliver', 'high-quality', 'content,', 'such', 'as', 'educational', 'guides', 'to', 'support', 'our', 'target', 'use', 'cases', 'and', 'best', 'practice', 'articles', 'to', 'help', 'our', 'customers', 'get', 'the', 'most', 'value', 'out', 'of', 'our', 'software.', 'We', 'do', 'our', 'planning', 'and', 'collaboration', 'in', 'Aha!', 'Roadmaps', '.', 'We', 'are', 'power', 'users', 'of', 'our', 'own', 'software,', 'often', 'providing', 'feedback', 'and', 'suggestions', 'for', 'improvements', 'that', 'are', 'shipped', 'to', 'customers', 'too.', 'We', 'use', 'Slack', 'and', 'Zoom', 'for', 'video', 'calls.', '(Email?', 'Rarely.)', 'You', 'have', 'at', 'least', 'four', 'years', 'of', 'experience', 'in', 'product', 'marketing', 'at', 'a', 'SaaS', 'company.', 'And', 'you', 'are', 'passionate', 'about', 'how', 'sophisticated', 'product', 'development', 'tools', 'can', 'help', 'organizations', 'work', 'in', 'a', 'more', 'productive', 'way.', 'You', 'thrive', 'on', 'being', 'a', 'market,', 'customer,', 'and', 'product', 'expert', '—', 'so', 'you', 'can', 'communicate', 'the', 'value', 'of', 'your', "company's", 'offerings', 'with', 'confidence.', 'You', 'like', 'to', 'work', 'in', 'a', 'fast-paced', 'environment,', 'where', 'launches', 'happen', 'often', '—', 'not', 'once', 'or', 'twice', 'a', 'year.', 'And', 'you', 'thrive', 'on', 'collaborating', 'closely', 'with', 'cross-functional', 'teams', 'to', 'achieve', 'excellent', 'results.', 'You', 'love', 'honing', 'in', 'on', 'the', 'details', 'and', 'producing', 'exceptional', 'work', 'for', 'effectively', 'marketing', 'products', 'and', 'services.', 'Your', 'work', 'at', 'Aha!', 'We', 'work', 'on', 'a', 'broad', 'range', 'of', 'marketing', 'initiatives', 'and', 'programs.', 'As', 'Product', 'Marketing', 'Manager,', 'your', 'responsibilities', 'will', 'include:', 'Managing', 'weekly', 'go-to-market', 'launches,', 'delivering', 'high-quality', 'messaging', 'and', 'screenshots', 'that', 'communicate', 'the', 'value', 'of', 'new', 'or', 'enhanced', 'functionality.', 'Producing', 'excellent', 'content', 'for', 'customers', '—', 'such', 'as', 'guides,', 'live', 'trainings,', 'video', 'scripts,', 'concierge', 'tools,', 'and', 'best', 'practice', 'articles.', 'Assisting', 'with', 'strategic', 'initiatives', 'and', 'programs', 'to', 'drive', 'new', 'customer', 'adoption', 'and', 'help', 'existing', 'customers', 'get', 'more', 'value', 'out', 'of', 'our', 'software.', 'Supporting', 'the', 'ongoing', 'growth', 'of', 'new', 'products', 'and', 'services.', 'Working', 'proactively', 'to', 'deepen', 'your', 'understanding', 'of', 'our', 'market,', 'customers,', 'and', 'product.', 'If', 'the', 'Product', 'Marketing', 'Manager', 'role', 'sounds', 'appealing,', 'we', 'would', 'love', 'to', 'hear', 'from', 'you.', '(A', 'real', 'human', 'reviews', 'every', 'application.)', 'Grow', 'with', 'us', 'Everyone', 'deserves', 'to', 'reach', 'their', 'fullest', 'potential.', 'We', 'know', 'that', 'when', 'we', 'do', 'work', 'that', 'matters', 'with', 'people', 'we', 'care', 'about', 'in', 'a', 'high-growth', 'environment,', 'we', 'feel', 'engaged', 'and', 'alive.', 'And', 'our', 'goal', 'is', 'to', 'help', 'you', 'do', 'just', 'that.', 'We', 'offer', 'all', 'the', 'benefits', 'you', 'would', 'expect', 'and', 'more,', 'including', 'profit', 'sharing.', 'The', 'specific', 'benefits', 'listed', 'below', 'are', 'reflective', 'of', 'what', 'we', 'offer', 'U.S.-based', 'hires.', 'We', 'also', 'do', 'our', 'best', 'to', 'extend', 'identical', 'benefits', 'to', 'international', 'teammates.', 'Generous', 'salary', 'with', 'annual', 'profit', 'sharing', 'for', 'all', 'Medical,', 'dental,', 'and', 'vision', 'plans', '—', 'for', 'many', 'teammates,', 'we', 'cover', '100', 'percent', 'of', 'the', 'premiums', 'Up', 'to', '200', 'hours', 'of', 'paid', 'time', 'off', 'a', 'year', 'to', 'spend', 'however', 'you', 'want', '30', 'to', '90', 'days', 'of', 'paid', 'parental', 'leave', 'and', 'five', 'to', '10', 'days', 'of', 'paid', 'care', 'and', 'bereavement', 'leave', 'Up', 'to', '$1,000', 'annually', 'for', 'third-party', 'education,', 'along', 'with', 'paid', 'time', 'off', 'to', 'immerse', 'yourself', 'in', 'learning', 'Aha!', 'contributes', 'a', 'percentage', 'of', 'your', 'total', 'compensation', 'each', 'year', 'towards', 'your', 'retirement']</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2463,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>San Diego, CA</t>
+          <t>Omaha, NE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086494/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=nNSQwKm9sJbUbulzErMYEg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084682/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=gZidc4jYHpZvGkZrbgsBMQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2479,14 +2477,13 @@
 Our team
 The Aha! marketing team is a highly collaborative group of experts across digital, communications, and product marketing disciplines. We work within North American time zones so we can easily meet live on video and achieve more together.
 We drive growth: Aha! does not have a sales team — marketing is responsible for increasing awareness and trial sign-ups.
-We give big effort: We work exceptionally hard and fast, constantly producing content that engages new customers and brings value to existing ones.
-We are curious:We seek to better understand our market, customers, and products so we can clearly articulate the unique value of what we offer.
-We have fun: We care deeply about our teammates, always making time to celebrate, support, and laugh with each other.
-We enjoy: We like what we do and we want you to love your job too. Learn more about The Responsive Method , our company values , and the generous benefits we offer.
-Our programs
-The product marketing group within the broader marketing team is responsible for messaging the unique value of our products and services. We own a broad range of programs — from managing weekly go-to-market launches to producing live product trainings and tools for concierge support . We deliver high-quality content, such as educational guides to support our target use cases and best practice articles to help our customers get the most value out of our software.
-We do our planning and collaboration in Aha! Roadmaps . We are power users of our own software, often providing feedback and suggestions for improvements that are shipped to customers too. We use Slack and Zoom for video calls. (Email? Rarely.)
-Your Experience
+We give big effort: We work exceptionally hard and fast, constantly producing content that engages new customers and brings value to existing ones. 
+We are curious:We seek to better understand our market, customers, and products so we can clearly articulate the unique value of what we offer. 
+We have fun: We care deeply about our teammates, always making time to celebrate, support, and laugh with each other.
+We enjoy: We like what we do and we want you to love your job too. Learn more about The Responsive Method , our company values , and the generous benefits we offer. 
+Our programs
+The product marketing group within the broader marketing team is responsible for messaging the unique value of our products and services. We own a broad range of programs — from managing weekly go-to-market launches to producing live product trainings and tools for concierge support . We deliver high-quality content, such as educational guides to support our target use cases and best practice articles to help our customers get the most value out of our software.
+We do our planning and collaboration in Aha! Roadmaps . We are power users of our own software, often providing feedback and suggestions for improvements that are shipped to customers too. We use Slack and Zoom for video calls. (Email? Rarely.)
 You have at least four years of experience in product marketing at a SaaS company. And you are passionate about how sophisticated product development tools can help organizations work in a more productive way. You thrive on being a market, customer, and product expert — so you can communicate the value of your company's offerings with confidence.
 You like to work in a fast-paced environment, where launches happen often — not once or twice a year. And you thrive on collaborating closely with cross-functional teams to achieve excellent results. You love honing in on the details and producing exceptional work for effectively marketing products and services.
 Your work at Aha!
@@ -2509,7 +2506,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Aha!', 'is', 'a', 'very', 'different', 'type', 'of', 'high-growth', 'SaaS', 'company.', 'We', 'are', 'self-funded,', 'highly', 'profitable,', 'and', '100', 'percent', 'remote.', 'We', 'provide', 'the', "world's", '#1', 'product', 'development', 'software', 'so', 'teams', 'can', 'build', 'products', 'that', 'customers', 'love.', 'More', 'than', '600,000', 'product', 'builders', 'use', 'our', 'suite', 'of', 'tools', 'which', 'includes', 'Aha!', 'Roadmaps', ',', 'Aha!', 'Ideas', ',', 'Aha!', 'Create', ',', 'and', 'Aha!', 'Develop', '.', 'And', 'they', 'rely', 'on', 'our', 'training', 'programs', 'via', 'Aha!', 'Academy', 'to', 'become', 'product', 'development', 'experts.', 'We', 'are', 'recognized', 'as', 'one', 'of', 'the', 'best', 'fully', 'remote', 'companies', 'to', 'work', 'for,', 'champion', 'the', 'Bootstrap', 'Movement', ',', 'and', 'have', 'given', 'over', '$1M', 'to', 'people', 'in', 'need', 'through', 'Aha!', 'Cares', '.', 'Learn', 'more', 'at', 'www.aha.io', '.', 'Our', 'team', 'The', 'Aha!', 'marketing', 'team', 'is', 'a', 'highly', 'collaborative', 'group', 'of', 'experts', 'across', 'digital,', 'communications,', 'and', 'product', 'marketing', 'disciplines.', 'We', 'work', 'within', 'North', 'American', 'time', 'zones', 'so', 'we', 'can', 'easily', 'meet', 'live', 'on', 'video', 'and', 'achieve', 'more', 'together.', 'We', 'drive', 'growth:', 'Aha!', 'does', 'not', 'have', 'a', 'sales', 'team', '—', 'marketing', 'is', 'responsible', 'for', 'increasing', 'awareness', 'and', 'trial', 'sign-ups.', 'We', 'give', 'big', 'effort:', 'We', 'work', 'exceptionally', 'hard', 'and', 'fast,', 'constantly', 'producing', 'content', 'that', 'engages', 'new', 'customers', 'and', 'brings', 'value', 'to', 'existing', 'ones.', 'We', 'are', 'curious:We', 'seek', 'to', 'better', 'understand', 'our', 'market,', 'customers,', 'and', 'products', 'so', 'we', 'can', 'clearly', 'articulate', 'the', 'unique', 'value', 'of', 'what', 'we', 'offer.', 'We', 'have', 'fun:', 'We', 'care', 'deeply', 'about', 'our', 'teammates,', 'always', 'making', 'time', 'to', 'celebrate,', 'support,', 'and', 'laugh', 'with', 'each', 'other.', 'We', 'enjoy:', 'We', 'like', 'what', 'we', 'do', 'and', 'we', 'want', 'you', 'to', 'love', 'your', 'job', 'too.', 'Learn', 'more', 'about', 'The', 'Responsive', 'Method', ',', 'our', 'company', 'values', ',', 'and', 'the', 'generous', 'benefits', 'we', 'offer.', 'Our', 'programs', 'The', 'product', 'marketing', 'group', 'within', 'the', 'broader', 'marketing', 'team', 'is', 'responsible', 'for', 'messaging', 'the', 'unique', 'value', 'of', 'our', 'products', 'and', 'services.', 'We', 'own', 'a', 'broad', 'range', 'of', 'programs', '—', 'from', 'managing', 'weekly', 'go-to-market', 'launches', 'to', 'producing', 'live', 'product', 'trainings', 'and', 'tools', 'for', 'concierge', 'support', '.', 'We', 'deliver', 'high-quality', 'content,', 'such', 'as', 'educational', 'guides', 'to', 'support', 'our', 'target', 'use', 'cases', 'and', 'best', 'practice', 'articles', 'to', 'help', 'our', 'customers', 'get', 'the', 'most', 'value', 'out', 'of', 'our', 'software.', 'We', 'do', 'our', 'planning', 'and', 'collaboration', 'in', 'Aha!', 'Roadmaps', '.', 'We', 'are', 'power', 'users', 'of', 'our', 'own', 'software,', 'often', 'providing', 'feedback', 'and', 'suggestions', 'for', 'improvements', 'that', 'are', 'shipped', 'to', 'customers', 'too.', 'We', 'use', 'Slack', 'and', 'Zoom', 'for', 'video', 'calls.', '(Email?', 'Rarely.)', 'Your', 'Experience', 'You', 'have', 'at', 'least', 'four', 'years', 'of', 'experience', 'in', 'product', 'marketing', 'at', 'a', 'SaaS', 'company.', 'And', 'you', 'are', 'passionate', 'about', 'how', 'sophisticated', 'product', 'development', 'tools', 'can', 'help', 'organizations', 'work', 'in', 'a', 'more', 'productive', 'way.', 'You', 'thrive', 'on', 'being', 'a', 'market,', 'customer,', 'and', 'product', 'expert', '—', 'so', 'you', 'can', 'communicate', 'the', 'value', 'of', 'your', "company's", 'offerings', 'with', 'confidence.', 'You', 'like', 'to', 'work', 'in', 'a', 'fast-paced', 'environment,', 'where', 'launches', 'happen', 'often', '—', 'not', 'once', 'or', 'twice', 'a', 'year.', 'And', 'you', 'thrive', 'on', 'collaborating', 'closely', 'with', 'cross-functional', 'teams', 'to', 'achieve', 'excellent', 'results.', 'You', 'love', 'honing', 'in', 'on', 'the', 'details', 'and', 'producing', 'exceptional', 'work', 'for', 'effectively', 'marketing', 'products', 'and', 'services.', 'Your', 'work', 'at', 'Aha!', 'We', 'work', 'on', 'a', 'broad', 'range', 'of', 'marketing', 'initiatives', 'and', 'programs.', 'As', 'Product', 'Marketing', 'Manager,', 'your', 'responsibilities', 'will', 'include:', 'Managing', 'weekly', 'go-to-market', 'launches,', 'delivering', 'high-quality', 'messaging', 'and', 'screenshots', 'that', 'communicate', 'the', 'value', 'of', 'new', 'or', 'enhanced', 'functionality.', 'Producing', 'excellent', 'content', 'for', 'customers', '—', 'such', 'as', 'guides,', 'live', 'trainings,', 'video', 'scripts,', 'concierge', 'tools,', 'and', 'best', 'practice', 'articles.', 'Assisting', 'with', 'strategic', 'initiatives', 'and', 'programs', 'to', 'drive', 'new', 'customer', 'adoption', 'and', 'help', 'existing', 'customers', 'get', 'more', 'value', 'out', 'of', 'our', 'software.', 'Supporting', 'the', 'ongoing', 'growth', 'of', 'new', 'products', 'and', 'services.', 'Working', 'proactively', 'to', 'deepen', 'your', 'understanding', 'of', 'our', 'market,', 'customers,', 'and', 'product.', 'If', 'the', 'Product', 'Marketing', 'Manager', 'role', 'sounds', 'appealing,', 'we', 'would', 'love', 'to', 'hear', 'from', 'you.', '(A', 'real', 'human', 'reviews', 'every', 'application.)', 'Grow', 'with', 'us', 'Everyone', 'deserves', 'to', 'reach', 'their', 'fullest', 'potential.', 'We', 'know', 'that', 'when', 'we', 'do', 'work', 'that', 'matters', 'with', 'people', 'we', 'care', 'about', 'in', 'a', 'high-growth', 'environment,', 'we', 'feel', 'engaged', 'and', 'alive.', 'And', 'our', 'goal', 'is', 'to', 'help', 'you', 'do', 'just', 'that.', 'We', 'offer', 'all', 'the', 'benefits', 'you', 'would', 'expect', 'and', 'more,', 'including', 'profit', 'sharing.', 'The', 'specific', 'benefits', 'listed', 'below', 'are', 'reflective', 'of', 'what', 'we', 'offer', 'U.S.-based', 'hires.', 'We', 'also', 'do', 'our', 'best', 'to', 'extend', 'identical', 'benefits', 'to', 'international', 'teammates.', 'Generous', 'salary', 'with', 'annual', 'profit', 'sharing', 'for', 'all', 'Medical,', 'dental,', 'and', 'vision', 'plans', '—', 'for', 'many', 'teammates,', 'we', 'cover', '100', 'percent', 'of', 'the', 'premiums', 'Up', 'to', '200', 'hours', 'of', 'paid', 'time', 'off', 'a', 'year', 'to', 'spend', 'however', 'you', 'want', '30', 'to', '90', 'days', 'of', 'paid', 'parental', 'leave', 'and', 'five', 'to', '10', 'days', 'of', 'paid', 'care', 'and', 'bereavement', 'leave', 'Up', 'to', '$1,000', 'annually', 'for', 'third-party', 'education,', 'along', 'with', 'paid', 'time', 'off', 'to', 'immerse', 'yourself', 'in', 'learning', 'Aha!', 'contributes', 'a', 'percentage', 'of', 'your', 'total', 'compensation', 'each', 'year', 'towards', 'your', 'retirement']</t>
+          <t>['Aha!', 'is', 'a', 'very', 'different', 'type', 'of', 'high-growth', 'SaaS', 'company.', 'We', 'are', 'self-funded,', 'highly', 'profitable,', 'and', '100', 'percent', 'remote.', 'We', 'provide', 'the', "world's", '#1', 'product', 'development', 'software', 'so', 'teams', 'can', 'build', 'products', 'that', 'customers', 'love.', 'More', 'than', '600,000', 'product', 'builders', 'use', 'our', 'suite', 'of', 'tools', 'which', 'includes', 'Aha!', 'Roadmaps', ',', 'Aha!', 'Ideas', ',', 'Aha!', 'Create', ',', 'and', 'Aha!', 'Develop', '.', 'And', 'they', 'rely', 'on', 'our', 'training', 'programs', 'via', 'Aha!', 'Academy', 'to', 'become', 'product', 'development', 'experts.', 'We', 'are', 'recognized', 'as', 'one', 'of', 'the', 'best', 'fully', 'remote', 'companies', 'to', 'work', 'for,', 'champion', 'the', 'Bootstrap', 'Movement', ',', 'and', 'have', 'given', 'over', '$1M', 'to', 'people', 'in', 'need', 'through', 'Aha!', 'Cares', '.', 'Learn', 'more', 'at', 'www.aha.io', '.', 'Our', 'team', 'The', 'Aha!', 'marketing', 'team', 'is', 'a', 'highly', 'collaborative', 'group', 'of', 'experts', 'across', 'digital,', 'communications,', 'and', 'product', 'marketing', 'disciplines.', 'We', 'work', 'within', 'North', 'American', 'time', 'zones', 'so', 'we', 'can', 'easily', 'meet', 'live', 'on', 'video', 'and', 'achieve', 'more', 'together.', 'We', 'drive', 'growth:', 'Aha!', 'does', 'not', 'have', 'a', 'sales', 'team', '—', 'marketing', 'is', 'responsible', 'for', 'increasing', 'awareness', 'and', 'trial', 'sign-ups.', 'We', 'give', 'big', 'effort:', 'We', 'work', 'exceptionally', 'hard', 'and', 'fast,', 'constantly', 'producing', 'content', 'that', 'engages', 'new', 'customers', 'and', 'brings', 'value', 'to', 'existing', 'ones.', 'We', 'are', 'curious:We', 'seek', 'to', 'better', 'understand', 'our', 'market,', 'customers,', 'and', 'products', 'so', 'we', 'can', 'clearly', 'articulate', 'the', 'unique', 'value', 'of', 'what', 'we', 'offer.', 'We', 'have', 'fun:', 'We', 'care', 'deeply', 'about', 'our', 'teammates,', 'always', 'making', 'time', 'to', 'celebrate,', 'support,', 'and', 'laugh', 'with', 'each', 'other.', 'We', 'enjoy:', 'We', 'like', 'what', 'we', 'do', 'and', 'we', 'want', 'you', 'to', 'love', 'your', 'job', 'too.', 'Learn', 'more', 'about', 'The', 'Responsive', 'Method', ',', 'our', 'company', 'values', ',', 'and', 'the', 'generous', 'benefits', 'we', 'offer.', 'Our', 'programs', 'The', 'product', 'marketing', 'group', 'within', 'the', 'broader', 'marketing', 'team', 'is', 'responsible', 'for', 'messaging', 'the', 'unique', 'value', 'of', 'our', 'products', 'and', 'services.', 'We', 'own', 'a', 'broad', 'range', 'of', 'programs', '—', 'from', 'managing', 'weekly', 'go-to-market', 'launches', 'to', 'producing', 'live', 'product', 'trainings', 'and', 'tools', 'for', 'concierge', 'support', '.', 'We', 'deliver', 'high-quality', 'content,', 'such', 'as', 'educational', 'guides', 'to', 'support', 'our', 'target', 'use', 'cases', 'and', 'best', 'practice', 'articles', 'to', 'help', 'our', 'customers', 'get', 'the', 'most', 'value', 'out', 'of', 'our', 'software.', 'We', 'do', 'our', 'planning', 'and', 'collaboration', 'in', 'Aha!', 'Roadmaps', '.', 'We', 'are', 'power', 'users', 'of', 'our', 'own', 'software,', 'often', 'providing', 'feedback', 'and', 'suggestions', 'for', 'improvements', 'that', 'are', 'shipped', 'to', 'customers', 'too.', 'We', 'use', 'Slack', 'and', 'Zoom', 'for', 'video', 'calls.', '(Email?', 'Rarely.)', 'You', 'have', 'at', 'least', 'four', 'years', 'of', 'experience', 'in', 'product', 'marketing', 'at', 'a', 'SaaS', 'company.', 'And', 'you', 'are', 'passionate', 'about', 'how', 'sophisticated', 'product', 'development', 'tools', 'can', 'help', 'organizations', 'work', 'in', 'a', 'more', 'productive', 'way.', 'You', 'thrive', 'on', 'being', 'a', 'market,', 'customer,', 'and', 'product', 'expert', '—', 'so', 'you', 'can', 'communicate', 'the', 'value', 'of', 'your', "company's", 'offerings', 'with', 'confidence.', 'You', 'like', 'to', 'work', 'in', 'a', 'fast-paced', 'environment,', 'where', 'launches', 'happen', 'often', '—', 'not', 'once', 'or', 'twice', 'a', 'year.', 'And', 'you', 'thrive', 'on', 'collaborating', 'closely', 'with', 'cross-functional', 'teams', 'to', 'achieve', 'excellent', 'results.', 'You', 'love', 'honing', 'in', 'on', 'the', 'details', 'and', 'producing', 'exceptional', 'work', 'for', 'effectively', 'marketing', 'products', 'and', 'services.', 'Your', 'work', 'at', 'Aha!', 'We', 'work', 'on', 'a', 'broad', 'range', 'of', 'marketing', 'initiatives', 'and', 'programs.', 'As', 'Product', 'Marketing', 'Manager,', 'your', 'responsibilities', 'will', 'include:', 'Managing', 'weekly', 'go-to-market', 'launches,', 'delivering', 'high-quality', 'messaging', 'and', 'screenshots', 'that', 'communicate', 'the', 'value', 'of', 'new', 'or', 'enhanced', 'functionality.', 'Producing', 'excellent', 'content', 'for', 'customers', '—', 'such', 'as', 'guides,', 'live', 'trainings,', 'video', 'scripts,', 'concierge', 'tools,', 'and', 'best', 'practice', 'articles.', 'Assisting', 'with', 'strategic', 'initiatives', 'and', 'programs', 'to', 'drive', 'new', 'customer', 'adoption', 'and', 'help', 'existing', 'customers', 'get', 'more', 'value', 'out', 'of', 'our', 'software.', 'Supporting', 'the', 'ongoing', 'growth', 'of', 'new', 'products', 'and', 'services.', 'Working', 'proactively', 'to', 'deepen', 'your', 'understanding', 'of', 'our', 'market,', 'customers,', 'and', 'product.', 'If', 'the', 'Product', 'Marketing', 'Manager', 'role', 'sounds', 'appealing,', 'we', 'would', 'love', 'to', 'hear', 'from', 'you.', '(A', 'real', 'human', 'reviews', 'every', 'application.)', 'Grow', 'with', 'us', 'Everyone', 'deserves', 'to', 'reach', 'their', 'fullest', 'potential.', 'We', 'know', 'that', 'when', 'we', 'do', 'work', 'that', 'matters', 'with', 'people', 'we', 'care', 'about', 'in', 'a', 'high-growth', 'environment,', 'we', 'feel', 'engaged', 'and', 'alive.', 'And', 'our', 'goal', 'is', 'to', 'help', 'you', 'do', 'just', 'that.', 'We', 'offer', 'all', 'the', 'benefits', 'you', 'would', 'expect', 'and', 'more,', 'including', 'profit', 'sharing.', 'The', 'specific', 'benefits', 'listed', 'below', 'are', 'reflective', 'of', 'what', 'we', 'offer', 'U.S.-based', 'hires.', 'We', 'also', 'do', 'our', 'best', 'to', 'extend', 'identical', 'benefits', 'to', 'international', 'teammates.', 'Generous', 'salary', 'with', 'annual', 'profit', 'sharing', 'for', 'all', 'Medical,', 'dental,', 'and', 'vision', 'plans', '—', 'for', 'many', 'teammates,', 'we', 'cover', '100', 'percent', 'of', 'the', 'premiums', 'Up', 'to', '200', 'hours', 'of', 'paid', 'time', 'off', 'a', 'year', 'to', 'spend', 'however', 'you', 'want', '30', 'to', '90', 'days', 'of', 'paid', 'parental', 'leave', 'and', 'five', 'to', '10', 'days', 'of', 'paid', 'care', 'and', 'bereavement', 'leave', 'Up', 'to', '$1,000', 'annually', 'for', 'third-party', 'education,', 'along', 'with', 'paid', 'time', 'off', 'to', 'immerse', 'yourself', 'in', 'learning', 'Aha!', 'contributes', 'a', 'percentage', 'of', 'your', 'total', 'compensation', 'each', 'year', 'towards', 'your', 'retirement']</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2526,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Iowa City, IA</t>
+          <t>Filadelfia, PA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085468/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=ET4GBtUY%2Btd9YW%2F5kfvzlA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090012/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=hPaxqimKAozpZuUbIYEi%2FQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2593,12 +2590,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Nueva York, NY</t>
+          <t>California, Estados Unidos</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086505/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=81yjIzpe7fyjBnhyFkFjOg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086517/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=zBCVgZAP07YQTFRvuJaJEw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2657,12 +2654,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tucson, AZ</t>
+          <t>Ontario, Canadá</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335087391/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=sMss4QWQztztFJqVc1DguQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088280/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=bOqhVm3oiOubCZyF8Y4oqQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2721,12 +2718,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Columbus, OH</t>
+          <t>Fargo, ND</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335091000/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=HlqY%2Fc0Xa6rTA%2BFpyMQF%2Fg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085484/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=xP1ytU%2BjAcjaZCyTYuzGCw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2785,12 +2782,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Oklahoma City, OK</t>
+          <t>Saint Louis, MO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086553/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=%2BC8vu0SagtA0bGZJTQpl%2FA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335083982/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=eAonMx4jdiAgtY0CAHWAWQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2849,12 +2846,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kitchener, ON</t>
+          <t>Orlando, FL</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086629/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=emkQiy6%2B9b7ZfVp%2FKti8pQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335089074/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=i%2FuCrttEWF6hHQHMIt4utg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2913,12 +2910,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Boise, ID</t>
+          <t>Charlotte, NC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085466/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=CryeMYGHm6VL3P8ZMT%2Bzmg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090022/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=ghWE647qsyk6iIh9VlC0qw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2977,12 +2974,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Vancouver, BC</t>
+          <t>Portland, OR</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085503/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=5%2B4kT13I0iM5Cxv%2BTk3xiw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088177/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=G3P4QVbQ8%2F921qSHnaOd4g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3041,12 +3038,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Des Moines, IA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085454/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=G1isxenHRfCzQ8KcIx2vpg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085472/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=rVCm53mdKWNTA5FliU9c4w%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3105,12 +3102,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>San Antonio, TX</t>
+          <t>Raleigh, NC</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084698/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=kLQljKEp%2FM6kL76tvKLYaw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086549/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=w0bC6h7K5vQ8oVe9TGu5HQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3169,12 +3166,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Las Vegas, NV</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088138/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=8oCoFw1XPVFCK%2Bc%2F4YDGAA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335087397/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=sPWnnKLzY%2ByuzI%2FZlXHPdA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3233,12 +3230,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cleveland, OH</t>
+          <t>Cincinnati, OH</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335087410/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=IPRZRzu6SfUmFzwI7%2FgWyQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335083991/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=6HcaddfJIy10VkGWXRSSIg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3297,12 +3294,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Calgary, AB</t>
+          <t>Nueva York, NY</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084743/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=gRJEA4lGIlrnQGcqWU77Aw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090014/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=NHVHgtCCKLwxNbsnyRt5Dg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3361,12 +3358,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Houston, TX</t>
+          <t>Miami, FL</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335087376/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=7KZSVC8dZqoV2Y%2FL%2F3Wduw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084670/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=vgUooSSyd%2BD5r3C2KliaZA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3425,12 +3422,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT</t>
+          <t>Birmingham, Inglaterra, Reino Unido</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335083979/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=nSv1aauiUESqZRZbMR17GA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090030/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=5N9MNsb45bfRkcYfZ3LG0g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3489,12 +3486,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lexington, KY</t>
+          <t>San Diego, CA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335087404/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=bmcBChtvGGIgRqZ2KCiO2A%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086494/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=Pld0DRWZhwMfgqiTbvZbOw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3553,12 +3550,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Chicago, IL</t>
+          <t>Tucson, AZ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084678/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=4gFoPaPIU2vy9Sr2O0x5GA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335087391/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=qplE29m%2FpyzvtHv94K5TjQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3617,12 +3614,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Victoria, BC</t>
+          <t>Iowa City, IA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335089217/?eBP=JOB_SEARCH_ORGANIC&amp;refId=6Wqg2xNehY%2F8wVBZqEuM3Q%3D%3D&amp;trackingId=ypz%2Bv11YEOkYt4wINr8j2Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085468/?eBP=JOB_SEARCH_ORGANIC&amp;refId=iXkBf8SzZD4QM9AHcZkM4A%3D%3D&amp;trackingId=f8JKex0naCQmveSD24ml%2FA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3681,12 +3678,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Los Ángeles, CA</t>
+          <t>Madison, WI</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086495/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=GbRBPDZHeILHuthgD%2BlHnw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335089113/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=UXFbWpdsjLaAIpNbn%2F8xRQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3745,12 +3742,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Boston, MA</t>
+          <t>Oklahoma City, OK</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335089078/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=5b4Omr1HEJtQlYL4fCbnaw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086553/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=X8i7p5u49lgpC4vMiDoxMg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3809,12 +3806,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Edmonton, AB</t>
+          <t>Nueva York, NY</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084788/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=foiTk7s%2BwAdekWrZOh0mEw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086505/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=gXaL%2B6RKDFHEMTbBbcwXTA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3873,12 +3870,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Indianápolis, IN</t>
+          <t>Halifax, NS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088171/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=t6h1EPrSlU80fYwt2IjuFA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088234/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=bk2fOLYm5qNzRRXFQ6q6CA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3937,12 +3934,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kansas City, KS</t>
+          <t>Washington, Estados Unidos</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335085476/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=GgyPbCxawwtiS%2Ba3JzirXw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090005/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=6Dn3nJyrBpAw2QhazruAlQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4001,12 +3998,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bozeman, MT</t>
+          <t>Bentonville, AR</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084713/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=YqkCYIPeGKuWI6rOZKx1%2FQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335087396/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=S%2B1PCmrBWqQqYan1MXTPGA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4065,12 +4062,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Florida, Estados Unidos</t>
+          <t>Kitchener, ON</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086493/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=gaiDY3L3%2BNY1AHFR%2FJop6g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086629/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=uCuZlUDksRgtCJVfy6Yg%2BA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4129,12 +4126,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Montreal, QC</t>
+          <t>Calgary, AB</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090089/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=pa1Lf5hCIrrOMWa8Ao9pgg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084743/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=r6AOFdhMRPFtfHziokp3VQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4193,12 +4190,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thunder Bay, ON</t>
+          <t>Dallas, TX</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086665/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=aZQm%2BW1xUU4e0Z9imNETEg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085454/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=dUyk%2Fi6lHvulc0LUjdPSlw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4257,12 +4254,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Saint John, NB</t>
+          <t>Sioux Falls, SD</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335091117/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=W1%2F6CQ7igqXPpMLtVThl%2Bg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090026/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=WyW0g5uyHrVMnH4W4Z1yVw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4321,12 +4318,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Detroit, MI</t>
+          <t>Boise, ID</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086531/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=1S29ggP0kSOUUXQAGywQ0Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085466/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=WXOGopeDmAX5I6TQvPzQqw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4385,12 +4382,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Milwaukee, WI</t>
+          <t>Columbus, OH</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088154/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=POa%2BYdvAKabwru%2B2sToa4g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335091000/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=b39denebblCUt58fHe%2FsCw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4449,12 +4446,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Banff, AB</t>
+          <t>Vancouver, BC</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086573/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=EOzeyzxyYsC4iZLc0enI8g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335085503/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=O7QxAvJJUtoF8Ldgf7ZlGQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4513,12 +4510,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Omaha, NE</t>
+          <t>San Antonio, TX</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335084682/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=LJ7XmaJbU0lBS0MKmbxYQg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084698/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=51qx6LK7NC7Ik0UHlgYjcw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4577,12 +4574,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ontario, Canadá</t>
+          <t>Houston, TX</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088280/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=zkDeXEbBoiEF7qrElcxmew%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335087376/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=u%2FW0Vt2TN8MmXKNpTdCr9g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4641,12 +4638,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Saint Louis, MO</t>
+          <t>Cleveland, OH</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335083982/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=kYAWCxMd5AiYzuHTyT%2F1SA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335087410/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=33z48P%2F0EbHCXE%2F%2Bru%2BzkQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4705,12 +4702,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Raleigh, NC</t>
+          <t>Seattle, WA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086549/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=EIMKcCiapssjiaJ0dTTJqg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088138/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=tmJ8beIl%2FnNQudN7oXiS7Q%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4769,12 +4766,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Las Vegas, NV</t>
+          <t>Salt Lake City, UT</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335087397/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=ZUhfOg2Q2bTwDLTngy%2Bcfg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335083979/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=z57sRRqyqd3KU832%2FCmJnw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4833,12 +4830,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Birmingham, Inglaterra, Reino Unido</t>
+          <t>Jacksonville, FL</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090030/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=rznsUe47ZCcTWHZ5nloYfg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335091005/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=4nnLFv8qUrpv4HjZsGA9Hw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4897,12 +4894,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Halifax, NS</t>
+          <t>Chicago, IL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088234/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=m0DFhCRdDrLyHUGzWCbBtQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084678/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=vSgkyG33qCNG1TbOIz2h1g%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4961,12 +4958,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cincinnati, OH</t>
+          <t>Victoria, BC</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335083991/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=9ZkL7iidrW7hlux1nmi3vw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335089217/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=tRv5bzCp%2FkMomL5P24tiZw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5025,12 +5022,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bentonville, AR</t>
+          <t>Albuquerque, NM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335087396/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=%2FskT%2FM8VmDH4OuVMjHkapg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088153/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=ZrjNQcW3HLc0DOV8X4m6yw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5089,12 +5086,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Madison, WI</t>
+          <t>Georgia, Estados Unidos</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335089113/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=pKkp%2FW%2B44tOrQSd72Fs7Dg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086510/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=VlpuE2K59hNq8eZaU%2F%2Fn%2FQ%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5153,12 +5150,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Washington, Estados Unidos</t>
+          <t>Lexington, KY</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090005/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=AOctgOCGqaoINYKZSa8ctA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335087404/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=MUV0UQzVXDbyERDnzFh%2BDg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5217,12 +5214,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sioux Falls, SD</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090026/?eBP=JOB_SEARCH_ORGANIC&amp;refId=xZVUvn%2BD%2BcjLT0f9TYAtjA%3D%3D&amp;trackingId=5KdwFzytNMQzU0ifD3HbdA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335090019/?eBP=JOB_SEARCH_ORGANIC&amp;refId=DbmLRUlk0aEAP7Z2WabYpQ%3D%3D&amp;trackingId=O6dGLm7lIyMwGd6Ywlx0ig%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5281,12 +5278,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jacksonville, FL</t>
+          <t>Los Ángeles, CA</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335091005/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KfxIRXTbDc%2BkAeFn9zagsg%3D%3D&amp;trackingId=vE3K01U1xCDizbimsp87jg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335086495/?eBP=JOB_SEARCH_ORGANIC&amp;refId=oeBgNq3Qpzn%2B97DzpX8CFQ%3D%3D&amp;trackingId=IiUb%2BdVzHTMZdxKyKp5Fyg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5345,12 +5342,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Georgia, Estados Unidos</t>
+          <t>Boston, MA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335086510/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KfxIRXTbDc%2BkAeFn9zagsg%3D%3D&amp;trackingId=2fY%2BZjjsdB2dZWSV6Ce7Pw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335089078/?eBP=JOB_SEARCH_ORGANIC&amp;refId=oeBgNq3Qpzn%2B97DzpX8CFQ%3D%3D&amp;trackingId=U6UqaIG3MIdx2pQinSzYEw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5409,12 +5406,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mineápolis, MN</t>
+          <t>Edmonton, AB</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088148/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KfxIRXTbDc%2BkAeFn9zagsg%3D%3D&amp;trackingId=MSR0znGuJLbfhIfdnhyoPw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335084788/?eBP=JOB_SEARCH_ORGANIC&amp;refId=oeBgNq3Qpzn%2B97DzpX8CFQ%3D%3D&amp;trackingId=pQSd%2FXoSmzMa%2FSjzc5QDkw%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5423,14 +5420,13 @@
 Our team
 The Aha! marketing team is a highly collaborative group of experts across digital, communications, and product marketing disciplines. We work within North American time zones so we can easily meet live on video and achieve more together.
 We drive growth: Aha! does not have a sales team — marketing is responsible for increasing awareness and trial sign-ups.
-We give big effort: We work exceptionally hard and fast, constantly producing content that engages new customers and brings value to existing ones.
-We are curious:We seek to better understand our market, customers, and products so we can clearly articulate the unique value of what we offer.
-We have fun: We care deeply about our teammates, always making time to celebrate, support, and laugh with each other.
-We enjoy: We like what we do and we want you to love your job too. Learn more about The Responsive Method , our company values , and the generous benefits we offer.
-Our programs
-The product marketing group within the broader marketing team is responsible for messaging the unique value of our products and services. We own a broad range of programs — from managing weekly go-to-market launches to producing live product trainings and tools for concierge support . We deliver high-quality content, such as educational guides to support our target use cases and best practice articles to help our customers get the most value out of our software.
-We do our planning and collaboration in Aha! Roadmaps . We are power users of our own software, often providing feedback and suggestions for improvements that are shipped to customers too. We use Slack and Zoom for video calls. (Email? Rarely.)
-Your Experience
+We give big effort: We work exceptionally hard and fast, constantly producing content that engages new customers and brings value to existing ones. 
+We are curious:We seek to better understand our market, customers, and products so we can clearly articulate the unique value of what we offer. 
+We have fun: We care deeply about our teammates, always making time to celebrate, support, and laugh with each other.
+We enjoy: We like what we do and we want you to love your job too. Learn more about The Responsive Method , our company values , and the generous benefits we offer. 
+Our programs
+The product marketing group within the broader marketing team is responsible for messaging the unique value of our products and services. We own a broad range of programs — from managing weekly go-to-market launches to producing live product trainings and tools for concierge support . We deliver high-quality content, such as educational guides to support our target use cases and best practice articles to help our customers get the most value out of our software.
+We do our planning and collaboration in Aha! Roadmaps . We are power users of our own software, often providing feedback and suggestions for improvements that are shipped to customers too. We use Slack and Zoom for video calls. (Email? Rarely.)
 You have at least four years of experience in product marketing at a SaaS company. And you are passionate about how sophisticated product development tools can help organizations work in a more productive way. You thrive on being a market, customer, and product expert — so you can communicate the value of your company's offerings with confidence.
 You like to work in a fast-paced environment, where launches happen often — not once or twice a year. And you thrive on collaborating closely with cross-functional teams to achieve excellent results. You love honing in on the details and producing exceptional work for effectively marketing products and services.
 Your work at Aha!
@@ -5453,7 +5449,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Aha!', 'is', 'a', 'very', 'different', 'type', 'of', 'high-growth', 'SaaS', 'company.', 'We', 'are', 'self-funded,', 'highly', 'profitable,', 'and', '100', 'percent', 'remote.', 'We', 'provide', 'the', "world's", '#1', 'product', 'development', 'software', 'so', 'teams', 'can', 'build', 'products', 'that', 'customers', 'love.', 'More', 'than', '600,000', 'product', 'builders', 'use', 'our', 'suite', 'of', 'tools', 'which', 'includes', 'Aha!', 'Roadmaps', ',', 'Aha!', 'Ideas', ',', 'Aha!', 'Create', ',', 'and', 'Aha!', 'Develop', '.', 'And', 'they', 'rely', 'on', 'our', 'training', 'programs', 'via', 'Aha!', 'Academy', 'to', 'become', 'product', 'development', 'experts.', 'We', 'are', 'recognized', 'as', 'one', 'of', 'the', 'best', 'fully', 'remote', 'companies', 'to', 'work', 'for,', 'champion', 'the', 'Bootstrap', 'Movement', ',', 'and', 'have', 'given', 'over', '$1M', 'to', 'people', 'in', 'need', 'through', 'Aha!', 'Cares', '.', 'Learn', 'more', 'at', 'www.aha.io', '.', 'Our', 'team', 'The', 'Aha!', 'marketing', 'team', 'is', 'a', 'highly', 'collaborative', 'group', 'of', 'experts', 'across', 'digital,', 'communications,', 'and', 'product', 'marketing', 'disciplines.', 'We', 'work', 'within', 'North', 'American', 'time', 'zones', 'so', 'we', 'can', 'easily', 'meet', 'live', 'on', 'video', 'and', 'achieve', 'more', 'together.', 'We', 'drive', 'growth:', 'Aha!', 'does', 'not', 'have', 'a', 'sales', 'team', '—', 'marketing', 'is', 'responsible', 'for', 'increasing', 'awareness', 'and', 'trial', 'sign-ups.', 'We', 'give', 'big', 'effort:', 'We', 'work', 'exceptionally', 'hard', 'and', 'fast,', 'constantly', 'producing', 'content', 'that', 'engages', 'new', 'customers', 'and', 'brings', 'value', 'to', 'existing', 'ones.', 'We', 'are', 'curious:We', 'seek', 'to', 'better', 'understand', 'our', 'market,', 'customers,', 'and', 'products', 'so', 'we', 'can', 'clearly', 'articulate', 'the', 'unique', 'value', 'of', 'what', 'we', 'offer.', 'We', 'have', 'fun:', 'We', 'care', 'deeply', 'about', 'our', 'teammates,', 'always', 'making', 'time', 'to', 'celebrate,', 'support,', 'and', 'laugh', 'with', 'each', 'other.', 'We', 'enjoy:', 'We', 'like', 'what', 'we', 'do', 'and', 'we', 'want', 'you', 'to', 'love', 'your', 'job', 'too.', 'Learn', 'more', 'about', 'The', 'Responsive', 'Method', ',', 'our', 'company', 'values', ',', 'and', 'the', 'generous', 'benefits', 'we', 'offer.', 'Our', 'programs', 'The', 'product', 'marketing', 'group', 'within', 'the', 'broader', 'marketing', 'team', 'is', 'responsible', 'for', 'messaging', 'the', 'unique', 'value', 'of', 'our', 'products', 'and', 'services.', 'We', 'own', 'a', 'broad', 'range', 'of', 'programs', '—', 'from', 'managing', 'weekly', 'go-to-market', 'launches', 'to', 'producing', 'live', 'product', 'trainings', 'and', 'tools', 'for', 'concierge', 'support', '.', 'We', 'deliver', 'high-quality', 'content,', 'such', 'as', 'educational', 'guides', 'to', 'support', 'our', 'target', 'use', 'cases', 'and', 'best', 'practice', 'articles', 'to', 'help', 'our', 'customers', 'get', 'the', 'most', 'value', 'out', 'of', 'our', 'software.', 'We', 'do', 'our', 'planning', 'and', 'collaboration', 'in', 'Aha!', 'Roadmaps', '.', 'We', 'are', 'power', 'users', 'of', 'our', 'own', 'software,', 'often', 'providing', 'feedback', 'and', 'suggestions', 'for', 'improvements', 'that', 'are', 'shipped', 'to', 'customers', 'too.', 'We', 'use', 'Slack', 'and', 'Zoom', 'for', 'video', 'calls.', '(Email?', 'Rarely.)', 'Your', 'Experience', 'You', 'have', 'at', 'least', 'four', 'years', 'of', 'experience', 'in', 'product', 'marketing', 'at', 'a', 'SaaS', 'company.', 'And', 'you', 'are', 'passionate', 'about', 'how', 'sophisticated', 'product', 'development', 'tools', 'can', 'help', 'organizations', 'work', 'in', 'a', 'more', 'productive', 'way.', 'You', 'thrive', 'on', 'being', 'a', 'market,', 'customer,', 'and', 'product', 'expert', '—', 'so', 'you', 'can', 'communicate', 'the', 'value', 'of', 'your', "company's", 'offerings', 'with', 'confidence.', 'You', 'like', 'to', 'work', 'in', 'a', 'fast-paced', 'environment,', 'where', 'launches', 'happen', 'often', '—', 'not', 'once', 'or', 'twice', 'a', 'year.', 'And', 'you', 'thrive', 'on', 'collaborating', 'closely', 'with', 'cross-functional', 'teams', 'to', 'achieve', 'excellent', 'results.', 'You', 'love', 'honing', 'in', 'on', 'the', 'details', 'and', 'producing', 'exceptional', 'work', 'for', 'effectively', 'marketing', 'products', 'and', 'services.', 'Your', 'work', 'at', 'Aha!', 'We', 'work', 'on', 'a', 'broad', 'range', 'of', 'marketing', 'initiatives', 'and', 'programs.', 'As', 'Product', 'Marketing', 'Manager,', 'your', 'responsibilities', 'will', 'include:', 'Managing', 'weekly', 'go-to-market', 'launches,', 'delivering', 'high-quality', 'messaging', 'and', 'screenshots', 'that', 'communicate', 'the', 'value', 'of', 'new', 'or', 'enhanced', 'functionality.', 'Producing', 'excellent', 'content', 'for', 'customers', '—', 'such', 'as', 'guides,', 'live', 'trainings,', 'video', 'scripts,', 'concierge', 'tools,', 'and', 'best', 'practice', 'articles.', 'Assisting', 'with', 'strategic', 'initiatives', 'and', 'programs', 'to', 'drive', 'new', 'customer', 'adoption', 'and', 'help', 'existing', 'customers', 'get', 'more', 'value', 'out', 'of', 'our', 'software.', 'Supporting', 'the', 'ongoing', 'growth', 'of', 'new', 'products', 'and', 'services.', 'Working', 'proactively', 'to', 'deepen', 'your', 'understanding', 'of', 'our', 'market,', 'customers,', 'and', 'product.', 'If', 'the', 'Product', 'Marketing', 'Manager', 'role', 'sounds', 'appealing,', 'we', 'would', 'love', 'to', 'hear', 'from', 'you.', '(A', 'real', 'human', 'reviews', 'every', 'application.)', 'Grow', 'with', 'us', 'Everyone', 'deserves', 'to', 'reach', 'their', 'fullest', 'potential.', 'We', 'know', 'that', 'when', 'we', 'do', 'work', 'that', 'matters', 'with', 'people', 'we', 'care', 'about', 'in', 'a', 'high-growth', 'environment,', 'we', 'feel', 'engaged', 'and', 'alive.', 'And', 'our', 'goal', 'is', 'to', 'help', 'you', 'do', 'just', 'that.', 'We', 'offer', 'all', 'the', 'benefits', 'you', 'would', 'expect', 'and', 'more,', 'including', 'profit', 'sharing.', 'The', 'specific', 'benefits', 'listed', 'below', 'are', 'reflective', 'of', 'what', 'we', 'offer', 'U.S.-based', 'hires.', 'We', 'also', 'do', 'our', 'best', 'to', 'extend', 'identical', 'benefits', 'to', 'international', 'teammates.', 'Generous', 'salary', 'with', 'annual', 'profit', 'sharing', 'for', 'all', 'Medical,', 'dental,', 'and', 'vision', 'plans', '—', 'for', 'many', 'teammates,', 'we', 'cover', '100', 'percent', 'of', 'the', 'premiums', 'Up', 'to', '200', 'hours', 'of', 'paid', 'time', 'off', 'a', 'year', 'to', 'spend', 'however', 'you', 'want', '30', 'to', '90', 'days', 'of', 'paid', 'parental', 'leave', 'and', 'five', 'to', '10', 'days', 'of', 'paid', 'care', 'and', 'bereavement', 'leave', 'Up', 'to', '$1,000', 'annually', 'for', 'third-party', 'education,', 'along', 'with', 'paid', 'time', 'off', 'to', 'immerse', 'yourself', 'in', 'learning', 'Aha!', 'contributes', 'a', 'percentage', 'of', 'your', 'total', 'compensation', 'each', 'year', 'towards', 'your', 'retirement']</t>
+          <t>['Aha!', 'is', 'a', 'very', 'different', 'type', 'of', 'high-growth', 'SaaS', 'company.', 'We', 'are', 'self-funded,', 'highly', 'profitable,', 'and', '100', 'percent', 'remote.', 'We', 'provide', 'the', "world's", '#1', 'product', 'development', 'software', 'so', 'teams', 'can', 'build', 'products', 'that', 'customers', 'love.', 'More', 'than', '600,000', 'product', 'builders', 'use', 'our', 'suite', 'of', 'tools', 'which', 'includes', 'Aha!', 'Roadmaps', ',', 'Aha!', 'Ideas', ',', 'Aha!', 'Create', ',', 'and', 'Aha!', 'Develop', '.', 'And', 'they', 'rely', 'on', 'our', 'training', 'programs', 'via', 'Aha!', 'Academy', 'to', 'become', 'product', 'development', 'experts.', 'We', 'are', 'recognized', 'as', 'one', 'of', 'the', 'best', 'fully', 'remote', 'companies', 'to', 'work', 'for,', 'champion', 'the', 'Bootstrap', 'Movement', ',', 'and', 'have', 'given', 'over', '$1M', 'to', 'people', 'in', 'need', 'through', 'Aha!', 'Cares', '.', 'Learn', 'more', 'at', 'www.aha.io', '.', 'Our', 'team', 'The', 'Aha!', 'marketing', 'team', 'is', 'a', 'highly', 'collaborative', 'group', 'of', 'experts', 'across', 'digital,', 'communications,', 'and', 'product', 'marketing', 'disciplines.', 'We', 'work', 'within', 'North', 'American', 'time', 'zones', 'so', 'we', 'can', 'easily', 'meet', 'live', 'on', 'video', 'and', 'achieve', 'more', 'together.', 'We', 'drive', 'growth:', 'Aha!', 'does', 'not', 'have', 'a', 'sales', 'team', '—', 'marketing', 'is', 'responsible', 'for', 'increasing', 'awareness', 'and', 'trial', 'sign-ups.', 'We', 'give', 'big', 'effort:', 'We', 'work', 'exceptionally', 'hard', 'and', 'fast,', 'constantly', 'producing', 'content', 'that', 'engages', 'new', 'customers', 'and', 'brings', 'value', 'to', 'existing', 'ones.', 'We', 'are', 'curious:We', 'seek', 'to', 'better', 'understand', 'our', 'market,', 'customers,', 'and', 'products', 'so', 'we', 'can', 'clearly', 'articulate', 'the', 'unique', 'value', 'of', 'what', 'we', 'offer.', 'We', 'have', 'fun:', 'We', 'care', 'deeply', 'about', 'our', 'teammates,', 'always', 'making', 'time', 'to', 'celebrate,', 'support,', 'and', 'laugh', 'with', 'each', 'other.', 'We', 'enjoy:', 'We', 'like', 'what', 'we', 'do', 'and', 'we', 'want', 'you', 'to', 'love', 'your', 'job', 'too.', 'Learn', 'more', 'about', 'The', 'Responsive', 'Method', ',', 'our', 'company', 'values', ',', 'and', 'the', 'generous', 'benefits', 'we', 'offer.', 'Our', 'programs', 'The', 'product', 'marketing', 'group', 'within', 'the', 'broader', 'marketing', 'team', 'is', 'responsible', 'for', 'messaging', 'the', 'unique', 'value', 'of', 'our', 'products', 'and', 'services.', 'We', 'own', 'a', 'broad', 'range', 'of', 'programs', '—', 'from', 'managing', 'weekly', 'go-to-market', 'launches', 'to', 'producing', 'live', 'product', 'trainings', 'and', 'tools', 'for', 'concierge', 'support', '.', 'We', 'deliver', 'high-quality', 'content,', 'such', 'as', 'educational', 'guides', 'to', 'support', 'our', 'target', 'use', 'cases', 'and', 'best', 'practice', 'articles', 'to', 'help', 'our', 'customers', 'get', 'the', 'most', 'value', 'out', 'of', 'our', 'software.', 'We', 'do', 'our', 'planning', 'and', 'collaboration', 'in', 'Aha!', 'Roadmaps', '.', 'We', 'are', 'power', 'users', 'of', 'our', 'own', 'software,', 'often', 'providing', 'feedback', 'and', 'suggestions', 'for', 'improvements', 'that', 'are', 'shipped', 'to', 'customers', 'too.', 'We', 'use', 'Slack', 'and', 'Zoom', 'for', 'video', 'calls.', '(Email?', 'Rarely.)', 'You', 'have', 'at', 'least', 'four', 'years', 'of', 'experience', 'in', 'product', 'marketing', 'at', 'a', 'SaaS', 'company.', 'And', 'you', 'are', 'passionate', 'about', 'how', 'sophisticated', 'product', 'development', 'tools', 'can', 'help', 'organizations', 'work', 'in', 'a', 'more', 'productive', 'way.', 'You', 'thrive', 'on', 'being', 'a', 'market,', 'customer,', 'and', 'product', 'expert', '—', 'so', 'you', 'can', 'communicate', 'the', 'value', 'of', 'your', "company's", 'offerings', 'with', 'confidence.', 'You', 'like', 'to', 'work', 'in', 'a', 'fast-paced', 'environment,', 'where', 'launches', 'happen', 'often', '—', 'not', 'once', 'or', 'twice', 'a', 'year.', 'And', 'you', 'thrive', 'on', 'collaborating', 'closely', 'with', 'cross-functional', 'teams', 'to', 'achieve', 'excellent', 'results.', 'You', 'love', 'honing', 'in', 'on', 'the', 'details', 'and', 'producing', 'exceptional', 'work', 'for', 'effectively', 'marketing', 'products', 'and', 'services.', 'Your', 'work', 'at', 'Aha!', 'We', 'work', 'on', 'a', 'broad', 'range', 'of', 'marketing', 'initiatives', 'and', 'programs.', 'As', 'Product', 'Marketing', 'Manager,', 'your', 'responsibilities', 'will', 'include:', 'Managing', 'weekly', 'go-to-market', 'launches,', 'delivering', 'high-quality', 'messaging', 'and', 'screenshots', 'that', 'communicate', 'the', 'value', 'of', 'new', 'or', 'enhanced', 'functionality.', 'Producing', 'excellent', 'content', 'for', 'customers', '—', 'such', 'as', 'guides,', 'live', 'trainings,', 'video', 'scripts,', 'concierge', 'tools,', 'and', 'best', 'practice', 'articles.', 'Assisting', 'with', 'strategic', 'initiatives', 'and', 'programs', 'to', 'drive', 'new', 'customer', 'adoption', 'and', 'help', 'existing', 'customers', 'get', 'more', 'value', 'out', 'of', 'our', 'software.', 'Supporting', 'the', 'ongoing', 'growth', 'of', 'new', 'products', 'and', 'services.', 'Working', 'proactively', 'to', 'deepen', 'your', 'understanding', 'of', 'our', 'market,', 'customers,', 'and', 'product.', 'If', 'the', 'Product', 'Marketing', 'Manager', 'role', 'sounds', 'appealing,', 'we', 'would', 'love', 'to', 'hear', 'from', 'you.', '(A', 'real', 'human', 'reviews', 'every', 'application.)', 'Grow', 'with', 'us', 'Everyone', 'deserves', 'to', 'reach', 'their', 'fullest', 'potential.', 'We', 'know', 'that', 'when', 'we', 'do', 'work', 'that', 'matters', 'with', 'people', 'we', 'care', 'about', 'in', 'a', 'high-growth', 'environment,', 'we', 'feel', 'engaged', 'and', 'alive.', 'And', 'our', 'goal', 'is', 'to', 'help', 'you', 'do', 'just', 'that.', 'We', 'offer', 'all', 'the', 'benefits', 'you', 'would', 'expect', 'and', 'more,', 'including', 'profit', 'sharing.', 'The', 'specific', 'benefits', 'listed', 'below', 'are', 'reflective', 'of', 'what', 'we', 'offer', 'U.S.-based', 'hires.', 'We', 'also', 'do', 'our', 'best', 'to', 'extend', 'identical', 'benefits', 'to', 'international', 'teammates.', 'Generous', 'salary', 'with', 'annual', 'profit', 'sharing', 'for', 'all', 'Medical,', 'dental,', 'and', 'vision', 'plans', '—', 'for', 'many', 'teammates,', 'we', 'cover', '100', 'percent', 'of', 'the', 'premiums', 'Up', 'to', '200', 'hours', 'of', 'paid', 'time', 'off', 'a', 'year', 'to', 'spend', 'however', 'you', 'want', '30', 'to', '90', 'days', 'of', 'paid', 'parental', 'leave', 'and', 'five', 'to', '10', 'days', 'of', 'paid', 'care', 'and', 'bereavement', 'leave', 'Up', 'to', '$1,000', 'annually', 'for', 'third-party', 'education,', 'along', 'with', 'paid', 'time', 'off', 'to', 'immerse', 'yourself', 'in', 'learning', 'Aha!', 'contributes', 'a', 'percentage', 'of', 'your', 'total', 'compensation', 'each', 'year', 'towards', 'your', 'retirement']</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5469,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Albuquerque, NM</t>
+          <t>Mineápolis, MN</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335088153/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KfxIRXTbDc%2BkAeFn9zagsg%3D%3D&amp;trackingId=xCT%2By3U6iLsCuoCO6PawJg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088148/?eBP=JOB_SEARCH_ORGANIC&amp;refId=oeBgNq3Qpzn%2B97DzpX8CFQ%3D%3D&amp;trackingId=CViNGhKAeLJdq2KbYL%2FYbg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5537,12 +5533,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Indianápolis, IN</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/3335090019/?eBP=JOB_SEARCH_ORGANIC&amp;refId=KfxIRXTbDc%2BkAeFn9zagsg%3D%3D&amp;trackingId=VcIr8930W9aDPsG6pH69Hg%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
+          <t>https://www.linkedin.com/jobs/view/3335088171/?eBP=JOB_SEARCH_ORGANIC&amp;refId=oeBgNq3Qpzn%2B97DzpX8CFQ%3D%3D&amp;trackingId=28oU8iz1X3TI%2BYkU%2B0SKTA%3D%3D&amp;trk=flagship3_search_srp_jobs</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
